--- a/Resources/TestData/Old/qat03.xlsx
+++ b/Resources/TestData/Old/qat03.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="128">
   <si>
     <t>TC_NO</t>
   </si>
@@ -249,9 +244,6 @@
     <t>219-324-3764-102891-5</t>
   </si>
   <si>
-    <t>$137.68</t>
-  </si>
-  <si>
     <t>https://qat03.frontier.com/</t>
   </si>
   <si>
@@ -369,18 +361,12 @@
     <t>016_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_InternetHOPUpgrade</t>
   </si>
   <si>
-    <t>https://qat01.frontier.com/</t>
-  </si>
-  <si>
     <t>22224444</t>
   </si>
   <si>
     <t>017_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video HOP Upgrade</t>
   </si>
   <si>
-    <t>ftrfrank1+ecommtest01@gmail.com</t>
-  </si>
-  <si>
     <t>018_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video ADD</t>
   </si>
   <si>
@@ -390,14 +376,44 @@
     <t>001_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_PreferredVideoPackage</t>
   </si>
   <si>
-    <t>Ftrfrank1+videoadd@gmail.com</t>
+    <t>219-364-9237-121317-5</t>
+  </si>
+  <si>
+    <t>$134.19</t>
+  </si>
+  <si>
+    <t>002_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomEssentialsPackage</t>
+  </si>
+  <si>
+    <t>ftrfrank1+feb18@gmail.com</t>
+  </si>
+  <si>
+    <t>003_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_CustomSportsPackage</t>
+  </si>
+  <si>
+    <t>004_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_ExtremePackage</t>
+  </si>
+  <si>
+    <t>005_CC_.COM_SS_AS_E-Com_AVP_Verify$6increase_UltimateVideoPackage</t>
+  </si>
+  <si>
+    <t>ftrfrank1+mar18@gmail.com</t>
+  </si>
+  <si>
+    <t>Ftrfrank1+videoaddtest03@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrfrank1+remedyticket@gmail.com</t>
+  </si>
+  <si>
+    <t>ftrfrank1+march18th@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +463,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -528,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -558,6 +580,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,33 +856,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD14"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -910,16 +935,16 @@
         <v>66</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="Q1" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -927,19 +952,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>54</v>
@@ -960,28 +985,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -997,19 +1022,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>54</v>
@@ -1038,19 +1063,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>54</v>
@@ -1071,19 +1096,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>54</v>
@@ -1095,10 +1120,10 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
@@ -1107,19 +1132,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>54</v>
@@ -1133,7 +1158,7 @@
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
       <c r="P7" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="20"/>
     </row>
@@ -1142,19 +1167,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>54</v>
@@ -1175,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>54</v>
@@ -1208,19 +1233,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>54</v>
@@ -1235,7 +1260,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="24"/>
       <c r="Q10" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1243,22 +1268,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1276,13 +1301,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>19</v>
@@ -1324,22 +1349,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -1352,27 +1377,171 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{069EBF77-4D15-4A56-96A2-FA48CB1466A3}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{33C6C5FD-354A-41B7-9096-024291403717}"/>
-    <hyperlink ref="F10" r:id="rId6" xr:uid="{A3CCDC15-D7B9-436E-A614-91E7AFB78D73}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{A4ADB31C-57E9-43FB-9A41-52E42CDD2F65}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{98ADF33B-5231-4A53-9BEF-8B69070AC4D9}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{81F8DC8E-D467-44C4-8E22-12E14ACD449D}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{E57E6C76-271D-4A6E-867E-E3E3824A3546}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{5E6CF49E-67CA-4C46-A649-3F6B29F4C8AA}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D14" r:id="rId10"/>
+    <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="F17" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="F18" r:id="rId19"/>
+    <hyperlink ref="F6" r:id="rId20"/>
+    <hyperlink ref="F7" r:id="rId21"/>
+    <hyperlink ref="F4" r:id="rId22"/>
+    <hyperlink ref="F5" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1424,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -1444,10 +1613,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>19</v>
@@ -1464,10 +1633,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -1484,10 +1653,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -1504,10 +1673,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -1524,10 +1693,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>19</v>
@@ -1544,10 +1713,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>19</v>
@@ -1564,10 +1733,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
@@ -1584,10 +1753,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -1604,10 +1773,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>19</v>
@@ -1624,10 +1793,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>19</v>
@@ -1644,10 +1813,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>19</v>
@@ -1664,10 +1833,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -1684,10 +1853,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -1704,10 +1873,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -1724,10 +1893,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>19</v>
@@ -1735,9 +1904,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="E3:E16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://qat01.frontier.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1745,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1821,10 +1990,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>19</v>
@@ -1855,10 +2024,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>19</v>
@@ -1881,19 +2050,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1911,10 +2080,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>19</v>
@@ -1937,10 +2106,10 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>19</v>
@@ -1963,10 +2132,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>19</v>
@@ -1989,10 +2158,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>19</v>
@@ -2015,10 +2184,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>19</v>
@@ -2041,10 +2210,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>19</v>
@@ -2058,10 +2227,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{946D5336-440C-4D1B-840F-DADDD6F71085}"/>
+    <hyperlink ref="E3:E9" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="G4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2069,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,7 +2286,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>19</v>
@@ -2128,13 +2297,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>19</v>
@@ -2145,13 +2314,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>19</v>
@@ -2162,13 +2331,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>19</v>
@@ -2179,13 +2348,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>19</v>
@@ -2196,13 +2365,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>19</v>
@@ -2213,13 +2382,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>19</v>
@@ -2230,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
@@ -2247,13 +2416,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>19</v>
@@ -2264,13 +2433,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>19</v>
@@ -2281,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>19</v>
@@ -2298,13 +2467,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>19</v>
@@ -2315,13 +2484,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>19</v>
@@ -2332,13 +2501,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>19</v>
@@ -2349,13 +2518,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>19</v>
@@ -2366,13 +2535,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>19</v>
@@ -2380,9 +2549,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId1" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D17" r:id="rId2" display="https://qat01.frontier.com/"/>
+    <hyperlink ref="D2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2390,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A13C76-3EBD-4EFB-AA5C-3F9569212C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,20 +2574,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -2438,7 +2607,7 @@
         <v>72</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>

--- a/Resources/TestData/Old/qat03.xlsx
+++ b/Resources/TestData/Old/qat03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Robot\DotCom\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA318A-9F78-453F-B822-C8CCF06F2754}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A3696-8CED-4762-8FEB-7D5CC9617820}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Headers" sheetId="2" r:id="rId4"/>
     <sheet name="TabSelections" sheetId="6" r:id="rId5"/>
     <sheet name="ECommerce" sheetId="10" r:id="rId6"/>
-    <sheet name="MultiLang" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="192">
   <si>
     <t>TC_NO</t>
   </si>
@@ -345,9 +344,6 @@
     <t>017_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video HOP Upgrade</t>
   </si>
   <si>
-    <t>018_CC_.COM_archive_REG_RES_FCOM_Man_ECOMM_Video ADD</t>
-  </si>
-  <si>
     <t>Order_Id</t>
   </si>
   <si>
@@ -388,60 +384,6 @@
   </si>
   <si>
     <t>Add Video Package</t>
-  </si>
-  <si>
-    <t>Customize Premium Channels</t>
-  </si>
-  <si>
-    <t>004_CC_.COM_SS_AS_E-Com_VC_ReplaceBundleinCart</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001_CC_.COM_SS_AS_E-Com_VC_PremiumChannelPackages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-003_CC_.COM_SS_AS_E-Com_VC_PremiumChannelOrderSummary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>008_CC_.COM_SS_AS_E-Com_VC_AddChannelPackage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-009_CC_.COM_SS_AS_E-Com_VC_AddAlacarteChannels</t>
-    </r>
   </si>
   <si>
     <t>ftrfrank1+mar13@gmail.com</t>
@@ -704,164 +646,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">024_CC_.COM_SS_AS_E-Com_AVP_Bundle Selection
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>026_CC_.COM_SS_AS_E-Com_AVP_Bundle Price</t>
-    </r>
-  </si>
-  <si>
-    <t>Complete Order</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001_CC_.COM_SS_AS_E-Com_OC_Order Confirmation Details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-002_CC_.COM_SS_AS_E-Com_OC_Check Status Link
-003_CC_.COM_SS_AS_E-Com_OC_Order Summary-TV
-004_CC_.COM_SS_AS_E-Com_OC_Important Information</t>
-    </r>
-  </si>
-  <si>
-    <t>Ftrfrank1+shopvideo@gmail.com</t>
-  </si>
-  <si>
-    <t>ftrfrank1+addtest03@gmail.com</t>
-  </si>
-  <si>
-    <t>Customize Router Selection</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001_CC_.COM_SS_AS_E-Com_DC_SelectRouterInformation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-004_CC_.COM_SS_AS_E-Com_DC_NoRouterSelected</t>
-    </r>
-  </si>
-  <si>
-    <t>003_CC_.COM_SS_AS_E-Com_DC_SelectBHR4Router</t>
-  </si>
-  <si>
-    <t>005_CC_.COM_SS_AS_E-Com_DC_RouterRental</t>
-  </si>
-  <si>
-    <t>006_CC_.COM_SS_AS_E-Com_DC_RouterPurchase</t>
-  </si>
-  <si>
-    <t>Customize Streaming Experience</t>
-  </si>
-  <si>
-    <t>001_CC_.COM_SS_AS_E-Com_VC_2 TVs_StandardDVR</t>
-  </si>
-  <si>
-    <t>002_CC_.COM_SS_AS_E-Com_VC_3 TVs_QuantumEnhanced</t>
-  </si>
-  <si>
-    <t>003_CC_.COM_SS_AS_E-Com_VC_5 TVs_StandardNODVR</t>
-  </si>
-  <si>
-    <t>004_CC_.COM_SS_AS_E-Com_VC_Updated Package-EquipmentReflectsinOrderSummary</t>
-  </si>
-  <si>
-    <t>Other Scenarios</t>
-  </si>
-  <si>
-    <t>006_CC_.COM_SS_AS_E-Com_OS_OrderStatusPage</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>008_CC_.COM_SS_AS_E-Com_OS_AgentPortal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Review Order</t>
-  </si>
-  <si>
-    <t>009_CC_.COM_SS_AS_E-Com_REV_ImportantInformation</t>
-  </si>
-  <si>
     <t>ftrfrank1+vv@gmail.com</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>001_CC_.COM_NSS_Res_ML_ErrorMessaging</t>
-  </si>
-  <si>
-    <t>002_CC_.COM_NSS_Res_ML_LanguageSelectionRetention</t>
-  </si>
-  <si>
-    <t>003_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_Enterprise</t>
-  </si>
-  <si>
-    <t>004_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_Res</t>
-  </si>
-  <si>
-    <t>005_CC_.COM_NSS_Res_ML_ToggleDisplayonHomePage_SMB</t>
-  </si>
-  <si>
-    <t>006_CC_.COM_NSS_Res_ML_ToggleDisplayonMobileAppPage</t>
-  </si>
-  <si>
-    <t>007_CC_.COM_NSS_Res_ML_ToggleFunctionalityonHomePage</t>
-  </si>
-  <si>
-    <t>008_CC_.COM_NSS_Res_ML_ToggleFunctionalityonMobileAppPage</t>
-  </si>
-  <si>
-    <t>009_CC_.COM_NSS_Res_ML_SiteWideTranslationNavigation</t>
+    <t>IE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,13 +721,6 @@
       <color rgb="FF444444"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1011,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1060,10 +851,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1345,13 +1132,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1212,7 @@
         <v>97</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1436,7 +1223,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>69</v>
@@ -1469,7 +1256,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>69</v>
@@ -1484,10 +1271,10 @@
         <v>53</v>
       </c>
       <c r="H3" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>107</v>
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
@@ -1506,7 +1293,7 @@
         <v>89</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>69</v>
@@ -1515,7 +1302,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>53</v>
@@ -1547,7 +1334,7 @@
         <v>90</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>69</v>
@@ -1556,7 +1343,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>53</v>
@@ -1580,7 +1367,7 @@
         <v>91</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>69</v>
@@ -1589,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>53</v>
@@ -1601,10 +1388,10 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="O6" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P6" s="26"/>
       <c r="Q6" s="28"/>
@@ -1617,7 +1404,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>69</v>
@@ -1626,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>53</v>
@@ -1640,7 +1427,7 @@
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
@@ -1652,7 +1439,7 @@
         <v>93</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>69</v>
@@ -1685,7 +1472,7 @@
         <v>94</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>70</v>
@@ -1718,7 +1505,7 @@
         <v>101</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>69</v>
@@ -1727,13 +1514,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -1755,7 +1542,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>69</v>
@@ -1764,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>100</v>
@@ -1781,52 +1568,23 @@
       <c r="Q11" s="28"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="28"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1837,15 +1595,14 @@
     <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1854,7 +1611,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>69</v>
@@ -1944,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>69</v>
@@ -1971,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>69</v>
@@ -1998,10 +1755,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>69</v>
@@ -2025,10 +1782,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>69</v>
@@ -2052,10 +1809,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>69</v>
@@ -2079,10 +1836,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>69</v>
@@ -2106,10 +1863,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>70</v>
@@ -2133,10 +1890,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>69</v>
@@ -2160,10 +1917,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>69</v>
@@ -2187,10 +1944,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>69</v>
@@ -2214,10 +1971,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>69</v>
@@ -2241,10 +1998,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>69</v>
@@ -2268,10 +2025,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>69</v>
@@ -2295,10 +2052,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>69</v>
@@ -2322,10 +2079,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>69</v>
@@ -2346,13 +2103,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>69</v>
@@ -2373,13 +2130,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>69</v>
@@ -2400,13 +2157,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>69</v>
@@ -2427,13 +2184,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>69</v>
@@ -2454,13 +2211,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>69</v>
@@ -2481,13 +2238,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>69</v>
@@ -2508,13 +2265,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>69</v>
@@ -2535,13 +2292,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>69</v>
@@ -2562,13 +2319,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>69</v>
@@ -2589,13 +2346,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>69</v>
@@ -2616,13 +2373,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>69</v>
@@ -2643,13 +2400,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>69</v>
@@ -2670,13 +2427,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>69</v>
@@ -2697,13 +2454,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>69</v>
@@ -2724,13 +2481,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>69</v>
@@ -2751,13 +2508,13 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>69</v>
@@ -2778,13 +2535,13 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>69</v>
@@ -2805,13 +2562,13 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>69</v>
@@ -2832,13 +2589,13 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>69</v>
@@ -2859,13 +2616,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>69</v>
@@ -2886,13 +2643,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>69</v>
@@ -2913,13 +2670,13 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>69</v>
@@ -2940,13 +2697,13 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>69</v>
@@ -2969,7 +2726,7 @@
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="28"/>
@@ -2986,16 +2743,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -3011,16 +2768,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -3036,16 +2793,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -3188,7 +2945,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>71</v>
@@ -3208,7 +2965,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>71</v>
@@ -3228,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>71</v>
@@ -3248,7 +3005,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>71</v>
@@ -3268,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>71</v>
@@ -3288,7 +3045,7 @@
         <v>68</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>71</v>
@@ -3308,7 +3065,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -3328,7 +3085,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>71</v>
@@ -3348,7 +3105,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>71</v>
@@ -3368,7 +3125,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>71</v>
@@ -3388,7 +3145,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>71</v>
@@ -3408,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>71</v>
@@ -3428,7 +3185,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>71</v>
@@ -3448,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
@@ -3468,7 +3225,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>71</v>
@@ -3488,7 +3245,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>71</v>
@@ -3519,7 +3276,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:H10"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,7 +3342,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>71</v>
@@ -3619,7 +3376,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>71</v>
@@ -3645,7 +3402,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>71</v>
@@ -3675,7 +3432,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>71</v>
@@ -3701,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>71</v>
@@ -3727,7 +3484,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>71</v>
@@ -3753,7 +3510,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>71</v>
@@ -3779,7 +3536,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>71</v>
@@ -3805,7 +3562,7 @@
         <v>48</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>71</v>
@@ -3881,7 +3638,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>69</v>
@@ -3898,7 +3655,7 @@
         <v>72</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>69</v>
@@ -3915,7 +3672,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>69</v>
@@ -3932,7 +3689,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>69</v>
@@ -3949,7 +3706,7 @@
         <v>75</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>69</v>
@@ -3966,7 +3723,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>69</v>
@@ -3983,7 +3740,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>69</v>
@@ -4000,7 +3757,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>69</v>
@@ -4017,7 +3774,7 @@
         <v>79</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>69</v>
@@ -4034,7 +3791,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>69</v>
@@ -4051,7 +3808,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>69</v>
@@ -4068,7 +3825,7 @@
         <v>82</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>69</v>
@@ -4085,7 +3842,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>69</v>
@@ -4102,7 +3859,7 @@
         <v>84</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>69</v>
@@ -4119,7 +3876,7 @@
         <v>85</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>69</v>
@@ -4136,7 +3893,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>69</v>
@@ -4158,10 +3915,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4212,7 +3969,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -4233,10 +3990,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>69</v>
@@ -4245,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>53</v>
@@ -4264,10 +4021,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>69</v>
@@ -4276,7 +4033,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>53</v>
@@ -4295,10 +4052,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>69</v>
@@ -4307,7 +4064,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>53</v>
@@ -4326,10 +4083,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>69</v>
@@ -4338,7 +4095,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>53</v>
@@ -4357,10 +4114,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>69</v>
@@ -4369,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>53</v>
@@ -4383,28 +4140,14 @@
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -4415,17 +4158,13 @@
       <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -4435,28 +4174,14 @@
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
     </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>53</v>
-      </c>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -4469,9 +4194,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="28" t="s">
-        <v>216</v>
-      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -4486,17 +4209,13 @@
       <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -4506,28 +4225,14 @@
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
@@ -4538,27 +4243,13 @@
       <c r="O13" s="28"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
@@ -4568,28 +4259,14 @@
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
@@ -4602,13 +4279,11 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="21"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
@@ -4619,17 +4294,13 @@
       <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
@@ -4639,28 +4310,14 @@
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>53</v>
-      </c>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -4671,27 +4328,13 @@
       <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -4702,27 +4345,13 @@
       <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -4733,27 +4362,13 @@
       <c r="O20" s="28"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -4762,502 +4377,6 @@
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5271,290 +4390,8 @@
     <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
     <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
     <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="F13" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="F14" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="F15" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="D8" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="F8" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="D18" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="F18" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="D19" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="F19" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="D20" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="F20" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="D21" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="F21" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="D23" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="F23" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="D24" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="F24" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
-    <hyperlink ref="D25" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
-    <hyperlink ref="F25" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
-    <hyperlink ref="D26" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
-    <hyperlink ref="F26" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
-    <hyperlink ref="D29" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
-    <hyperlink ref="F29" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
-    <hyperlink ref="D10" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
-    <hyperlink ref="F10" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC92ABD-82C6-4379-B3A1-8925AE0EE77E}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://qat01.frontier.com/" xr:uid="{B3B7A2F1-1B96-44E4-8129-01CF9F9237B1}"/>
-    <hyperlink ref="E3:E9" r:id="rId2" display="https://qat01.frontier.com/" xr:uid="{705FEEA4-F1BF-437A-8B94-71C280CDE5AF}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://qat01.frontier.com/" xr:uid="{9F98173B-E40B-438F-B292-860A150A0BFC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>